--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/60.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/60.xlsx
@@ -479,13 +479,13 @@
         <v>-0.0480386050036133</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.933866321530557</v>
+        <v>-1.934034227061011</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3889417068731831</v>
+        <v>0.3937321246594546</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2256188154559245</v>
+        <v>-0.231177218538014</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.008766207704633017</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.948592366575462</v>
+        <v>-1.947416297838235</v>
       </c>
       <c r="F3" t="n">
-        <v>0.308729584854841</v>
+        <v>0.3123037825813856</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2061052727209298</v>
+        <v>-0.2109365718537467</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.02235235980668523</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.025558801687714</v>
+        <v>-2.017455534783171</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2747834667412138</v>
+        <v>0.2852198904950292</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2215584217151075</v>
+        <v>-0.228330124760742</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.04003146941149046</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.084815583481289</v>
+        <v>-2.080973466930063</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2497611625592205</v>
+        <v>0.2610064529553993</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2217745088325619</v>
+        <v>-0.2348915808812857</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04830592209654311</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.048742905323253</v>
+        <v>-2.047819424905753</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2312273120932255</v>
+        <v>0.247067373831494</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2094312622720198</v>
+        <v>-0.2226899589855617</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.05522196656693291</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.90401855840811</v>
+        <v>-1.913410317752881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2534901253834013</v>
+        <v>0.2641791374569439</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1990298796723862</v>
+        <v>-0.2097845939100197</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.07179936212367946</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.631826172964274</v>
+        <v>-1.641793921280908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2577125844623093</v>
+        <v>0.2626855082599444</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1828364862961178</v>
+        <v>-0.1853725898300263</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1069040653480052</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.260880514795647</v>
+        <v>-1.265174516231009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2375434801344965</v>
+        <v>0.2468031051270395</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1307302900277682</v>
+        <v>-0.1280481816847689</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1675805073640499</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7807670608697754</v>
+        <v>-0.7784514245975943</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2693798287567607</v>
+        <v>0.2717757676739419</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03105134681334043</v>
+        <v>-0.02782172043625039</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2582353785957859</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2557600482446437</v>
+        <v>-0.2440417022670105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1493682558283384</v>
+        <v>0.1645994775126979</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05532363819672729</v>
+        <v>0.06048198810190772</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3823194409125491</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4171352355086301</v>
+        <v>0.4245522798104463</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02525540781255354</v>
+        <v>0.04241535302500348</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1522197297498831</v>
+        <v>0.1595696118395175</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5393313362592554</v>
       </c>
       <c r="E13" t="n">
-        <v>1.089433359592722</v>
+        <v>1.109462299303808</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1400118157416748</v>
+        <v>-0.1223335534569523</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2901314922728461</v>
+        <v>0.2917521456537547</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7266665851740123</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809530538076983</v>
+        <v>1.826340071747615</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3793852401980651</v>
+        <v>-0.3461209645428922</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4339944108143529</v>
+        <v>0.4385132596557153</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9387286140058784</v>
       </c>
       <c r="E15" t="n">
-        <v>2.514768807140067</v>
+        <v>2.531346193164244</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6553912712553546</v>
+        <v>-0.6174884228153648</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6270770105484829</v>
+        <v>0.6269222454508465</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.168308011145731</v>
       </c>
       <c r="E16" t="n">
-        <v>3.190895177318522</v>
+        <v>3.203350847582064</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9675860542939071</v>
+        <v>-0.9361468387523701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7843650712858952</v>
+        <v>0.7829240038201682</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.406410572892547</v>
       </c>
       <c r="E17" t="n">
-        <v>3.846594014657073</v>
+        <v>3.860906866092251</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.23720291490538</v>
+        <v>-1.195762369941119</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9872986154893861</v>
+        <v>0.9816058879829331</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.643814300211129</v>
       </c>
       <c r="E18" t="n">
-        <v>4.382333840798474</v>
+        <v>4.400841410398833</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.58512799482465</v>
+        <v>-1.555554720743295</v>
       </c>
       <c r="G18" t="n">
-        <v>1.185929397968969</v>
+        <v>1.181160880904061</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.868001998548388</v>
       </c>
       <c r="E19" t="n">
-        <v>4.905239844220788</v>
+        <v>4.929367138923054</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.874827816926573</v>
+        <v>-1.839076349348537</v>
       </c>
       <c r="G19" t="n">
-        <v>1.391404885898732</v>
+        <v>1.378575443323917</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.066185623132871</v>
       </c>
       <c r="E20" t="n">
-        <v>5.266854335040419</v>
+        <v>5.291459065468413</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.193357018607533</v>
+        <v>-2.159697799943769</v>
       </c>
       <c r="G20" t="n">
-        <v>1.601127653724949</v>
+        <v>1.588045622830407</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.22878689429634</v>
       </c>
       <c r="E21" t="n">
-        <v>5.573795865047882</v>
+        <v>5.60224782219542</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.510053859934402</v>
+        <v>-2.476087301147502</v>
       </c>
       <c r="G21" t="n">
-        <v>1.783397137297809</v>
+        <v>1.768738254465085</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.353001845889335</v>
       </c>
       <c r="E22" t="n">
-        <v>5.824801492644542</v>
+        <v>5.839745084854992</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.822783020574227</v>
+        <v>-2.785950387384873</v>
       </c>
       <c r="G22" t="n">
-        <v>1.909977466587229</v>
+        <v>1.896168331743415</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.439298945439254</v>
       </c>
       <c r="E23" t="n">
-        <v>5.978100701997591</v>
+        <v>5.991178352747861</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.066913281710798</v>
+        <v>-3.036646484786261</v>
       </c>
       <c r="G23" t="n">
-        <v>2.027959572669289</v>
+        <v>2.014785558745019</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.490843237451288</v>
       </c>
       <c r="E24" t="n">
-        <v>6.063982190752932</v>
+        <v>6.081250179524109</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.301087474915462</v>
+        <v>-3.27088419008288</v>
       </c>
       <c r="G24" t="n">
-        <v>2.13281730646217</v>
+        <v>2.117390438333628</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.509119848244091</v>
       </c>
       <c r="E25" t="n">
-        <v>6.083843224933563</v>
+        <v>6.095634573315742</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.478417615796778</v>
+        <v>-3.446040319356833</v>
       </c>
       <c r="G25" t="n">
-        <v>2.178708078007521</v>
+        <v>2.173599369737431</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.495701225933901</v>
       </c>
       <c r="E26" t="n">
-        <v>6.028447540316396</v>
+        <v>6.04299399944612</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.641316641347553</v>
+        <v>-3.611801769189833</v>
       </c>
       <c r="G26" t="n">
-        <v>2.196079730193152</v>
+        <v>2.200297809127788</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.45312650491515</v>
       </c>
       <c r="E27" t="n">
-        <v>5.916821023574062</v>
+        <v>5.941551318137874</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.7377484376078</v>
+        <v>-3.700707747565491</v>
       </c>
       <c r="G27" t="n">
-        <v>2.208684325361967</v>
+        <v>2.202609065255696</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.384298208193334</v>
       </c>
       <c r="E28" t="n">
-        <v>5.841078108761992</v>
+        <v>5.869217615618076</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.803490022997146</v>
+        <v>-3.767670663182883</v>
       </c>
       <c r="G28" t="n">
-        <v>2.211442356205694</v>
+        <v>2.210316659127603</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.293304953218807</v>
       </c>
       <c r="E29" t="n">
-        <v>5.642863439988318</v>
+        <v>5.673017813209855</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.843599004102499</v>
+        <v>-3.806687528316236</v>
       </c>
       <c r="G29" t="n">
-        <v>2.210735692929694</v>
+        <v>2.20841567651324</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.184072197804344</v>
       </c>
       <c r="E30" t="n">
-        <v>5.428985375295375</v>
+        <v>5.462032103785003</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.878878876147171</v>
+        <v>-3.834011598313547</v>
       </c>
       <c r="G30" t="n">
-        <v>2.167724136219614</v>
+        <v>2.162599367420525</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.059327300950401</v>
       </c>
       <c r="E31" t="n">
-        <v>5.141982262017361</v>
+        <v>5.183549831165532</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.765717848861292</v>
+        <v>-3.730306572488438</v>
       </c>
       <c r="G31" t="n">
-        <v>2.086964496167182</v>
+        <v>2.080332957738274</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.92242462372942</v>
       </c>
       <c r="E32" t="n">
-        <v>4.835547368697443</v>
+        <v>4.876932431834251</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.691126911992948</v>
+        <v>-3.648838809111914</v>
       </c>
       <c r="G32" t="n">
-        <v>1.941280897656312</v>
+        <v>1.934294567541314</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.775431822020356</v>
       </c>
       <c r="E33" t="n">
-        <v>4.551274545349429</v>
+        <v>4.595794331737417</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.548123231752942</v>
+        <v>-3.512184878019269</v>
       </c>
       <c r="G33" t="n">
-        <v>1.850173896783609</v>
+        <v>1.842060409542429</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.620772446308688</v>
       </c>
       <c r="E34" t="n">
-        <v>4.220147318716063</v>
+        <v>4.263738514518233</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.423858538735702</v>
+        <v>-3.399108533522663</v>
       </c>
       <c r="G34" t="n">
-        <v>1.715310714674463</v>
+        <v>1.716951808728645</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.461126613023663</v>
       </c>
       <c r="E35" t="n">
-        <v>3.882877669764245</v>
+        <v>3.919882588628326</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.313202953973823</v>
+        <v>-3.280927130876195</v>
       </c>
       <c r="G35" t="n">
-        <v>1.607110930801492</v>
+        <v>1.603672517547402</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.299949931198046</v>
       </c>
       <c r="E36" t="n">
-        <v>3.553061566316515</v>
+        <v>3.584527062723689</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.1935366824189</v>
+        <v>-3.156223693407638</v>
       </c>
       <c r="G36" t="n">
-        <v>1.452878750718352</v>
+        <v>1.457572805330623</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.140809821518231</v>
       </c>
       <c r="E37" t="n">
-        <v>3.193593346190521</v>
+        <v>3.234464472399328</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.046169648459212</v>
+        <v>-3.016234282451312</v>
       </c>
       <c r="G37" t="n">
-        <v>1.321757671866205</v>
+        <v>1.326848859559204</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9885774382219764</v>
       </c>
       <c r="E38" t="n">
-        <v>2.838118357593162</v>
+        <v>2.875883961512606</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.978862891516413</v>
+        <v>-2.96091963050319</v>
       </c>
       <c r="G38" t="n">
-        <v>1.178528414196153</v>
+        <v>1.180846970564516</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8469673042004963</v>
       </c>
       <c r="E39" t="n">
-        <v>2.490349502819619</v>
+        <v>2.532242662692062</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.83959401429295</v>
+        <v>-2.821489417965682</v>
       </c>
       <c r="G39" t="n">
-        <v>1.079999988877361</v>
+        <v>1.080181034840634</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7183154160487112</v>
       </c>
       <c r="E40" t="n">
-        <v>2.175948587115703</v>
+        <v>2.215206360184057</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.716125047485256</v>
+        <v>-2.704489924248804</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9580815931422122</v>
+        <v>0.9599577549390298</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6039878743790925</v>
       </c>
       <c r="E41" t="n">
-        <v>1.842775833106975</v>
+        <v>1.882146029878328</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.584276134659791</v>
+        <v>-2.575418022892248</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8366420931808811</v>
+        <v>0.8378772938657899</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5038180044698695</v>
       </c>
       <c r="E42" t="n">
-        <v>1.511150730074609</v>
+        <v>1.550272718670508</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.522240151325172</v>
+        <v>-2.510960549798857</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7219012938606392</v>
+        <v>0.7214384586158211</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.416673223220363</v>
       </c>
       <c r="E43" t="n">
-        <v>1.252116298026042</v>
+        <v>1.28550029762467</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.438747301246558</v>
+        <v>-2.430644034342014</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6540484789318393</v>
+        <v>0.6576591778606564</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3414437382766913</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9884316128079312</v>
+        <v>1.017193100150742</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.319108040581317</v>
+        <v>-2.316319348727681</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5468575882896862</v>
+        <v>0.5498944883187763</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2759329232198093</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7780649637736241</v>
+        <v>0.7971594727065281</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.275927118292692</v>
+        <v>-2.271826573229375</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4376430709935337</v>
+        <v>0.4431518324405322</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2180991518309486</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5469203703575953</v>
+        <v>0.5627545919035001</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.179006935946036</v>
+        <v>-2.18097362072449</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3812793744920943</v>
+        <v>0.3763517121852775</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1664447448261298</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3494547062545574</v>
+        <v>0.3639997053361899</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.100645424882921</v>
+        <v>-2.091751541937151</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2963994787271171</v>
+        <v>0.2953263433802992</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1197171381657732</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2370587441683148</v>
+        <v>0.2446071927983128</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.99492042252404</v>
+        <v>-1.987144936415906</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2135271490871394</v>
+        <v>0.2061889473822322</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.07708712432310744</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1056514958903501</v>
+        <v>0.1163127670501655</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.896930024926748</v>
+        <v>-1.888675643044796</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1569532056606091</v>
+        <v>0.1537600804857918</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03801689625854109</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.0003465354615304925</v>
+        <v>0.01117762412001187</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.815998099199588</v>
+        <v>-1.804408967478001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09280599278653541</v>
+        <v>0.08742863566771866</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.001244083319105724</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.09165064282650598</v>
+        <v>-0.07934243742014564</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.68623924521626</v>
+        <v>-1.674685884672899</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03799578745382285</v>
+        <v>0.02963993222955236</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.03460628048070485</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2028041039873852</v>
+        <v>-0.184673226794481</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.570090959536382</v>
+        <v>-1.55451954664684</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.004406929202347584</v>
+        <v>-0.008121291545619315</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.07070064357493309</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3329761515804412</v>
+        <v>-0.3054133637202668</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.45284471769214</v>
+        <v>-1.441402320803689</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07470532468341962</v>
+        <v>-0.07580182079969205</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1081318621108641</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3524648734978905</v>
+        <v>-0.3394529249117121</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.379633526269705</v>
+        <v>-1.369766521271345</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1387912155376751</v>
+        <v>-0.1400059755493112</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1467271891729557</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4885661763881267</v>
+        <v>-0.4682335466741321</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.3347312072819</v>
+        <v>-1.325600066521357</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1577192789882155</v>
+        <v>-0.1505650433427629</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1856197960391874</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5750156238508307</v>
+        <v>-0.5487551988877468</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.237842415969198</v>
+        <v>-1.238385553859016</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2031764162505669</v>
+        <v>-0.2000796542497496</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2236667593050822</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6839235310478924</v>
+        <v>-0.649596340382538</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.197273519715209</v>
+        <v>-1.197388863514391</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2362961471447399</v>
+        <v>-0.2305099765604687</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2597874939996631</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7073996443016134</v>
+        <v>-0.6723964513701682</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.150097905849858</v>
+        <v>-1.156552778459766</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2730981193241845</v>
+        <v>-0.2651028959783685</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2933258066409735</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7952346774025898</v>
+        <v>-0.7670207080938701</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.141261694803679</v>
+        <v>-1.143148076937133</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.323128127207262</v>
+        <v>-0.3176982083571726</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3236659530430498</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.853744644597665</v>
+        <v>-0.8332061481028523</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.091747083896692</v>
+        <v>-1.10228425096878</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.35775024758698</v>
+        <v>-0.3516195056532543</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3501970584508776</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9935135882922638</v>
+        <v>-0.9649433672493624</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.089854861570874</v>
+        <v>-1.093940076129237</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3997222500563323</v>
+        <v>-0.3949186918372427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3726267779087419</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.119994634311503</v>
+        <v>-1.08681066130133</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.090863754801692</v>
+        <v>-1.093763410310237</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4454713969368655</v>
+        <v>-0.4369782971920496</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3908723478456202</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.180053712531032</v>
+        <v>-1.146312001150132</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.129003131032409</v>
+        <v>-1.133046004196135</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5083629684527577</v>
+        <v>-0.4967701866109426</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4052716626172782</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.272244069087189</v>
+        <v>-1.242064875048106</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.163855939010491</v>
+        <v>-1.161896554472491</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5339546913902053</v>
+        <v>-0.5248863326975715</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4164732511204398</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.413813252077878</v>
+        <v>-1.374218207900525</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.124212713246138</v>
+        <v>-1.122936631214684</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5605961889050164</v>
+        <v>-0.5498297942826557</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.425046339277402</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.472835696152862</v>
+        <v>-1.433383736688418</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.212519341880478</v>
+        <v>-1.202025976251117</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6146851304808201</v>
+        <v>-0.6046575201924591</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4317173437463763</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.569233911307018</v>
+        <v>-1.532572103744301</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.304185541171998</v>
+        <v>-1.29337388505882</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6593129604275354</v>
+        <v>-0.6493773331689017</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4368381867674144</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.587198343017559</v>
+        <v>-1.55659135488784</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.377012739946524</v>
+        <v>-1.363676660684164</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6847353177864376</v>
+        <v>-0.672992150991259</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4406239178489308</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.643721184760907</v>
+        <v>-1.622252637632186</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.460213580406957</v>
+        <v>-1.446037973492324</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6751530221658039</v>
+        <v>-0.6673519852160786</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4429028127852354</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.697563378209348</v>
+        <v>-1.677179646812171</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.532512241772574</v>
+        <v>-1.520688772332395</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7019609651629785</v>
+        <v>-0.6927013401704355</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4435348982069087</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.738265138839609</v>
+        <v>-1.711227968292162</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.650487047614178</v>
+        <v>-1.63223644647782</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7520230941040559</v>
+        <v>-0.7346456017260606</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4424102221666706</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.718646472642069</v>
+        <v>-1.690939140020895</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.740428930110336</v>
+        <v>-1.727133732194521</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7705992859646873</v>
+        <v>-0.7565711439072366</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4391962652408588</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.709878883856162</v>
+        <v>-1.680651641172352</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.797603683326275</v>
+        <v>-1.778907037498144</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7873401973750465</v>
+        <v>-0.7773958098278673</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.434103979873653</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.657956653647267</v>
+        <v>-1.631377938200365</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.863787663287166</v>
+        <v>-1.850439173616034</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7878512142068644</v>
+        <v>-0.7756218513974132</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4268292629711951</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.561536537771748</v>
+        <v>-1.54312679139348</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.959527396752323</v>
+        <v>-1.952497265194597</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7881286233441371</v>
+        <v>-0.7782981195480488</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4171619358910643</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.443503330006507</v>
+        <v>-1.42549801694942</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.012476770793172</v>
+        <v>-2.004991104231083</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7678047539186881</v>
+        <v>-0.7649415996124161</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4047186891328717</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.298459232559455</v>
+        <v>-1.289294510692821</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.066694196600976</v>
+        <v>-2.05666731633666</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7539751784016009</v>
+        <v>-0.751782186169056</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3892787311899857</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104994100225507</v>
+        <v>-1.105360572296325</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.085414933222607</v>
+        <v>-2.082306490837063</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7273818624737898</v>
+        <v>-0.7252560324534267</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3706728072640595</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9317433337101895</v>
+        <v>-0.9430849872803683</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.089263619990242</v>
+        <v>-2.079398805064018</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.67255997675635</v>
+        <v>-0.6700676746651688</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3487540076771666</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6973618136766161</v>
+        <v>-0.7011623188572514</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.117999556491462</v>
+        <v>-2.113528159213054</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6227723368563634</v>
+        <v>-0.6121490269469116</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3232326803763046</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4354729876103228</v>
+        <v>-0.4437485401895933</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.115309417883962</v>
+        <v>-2.115426221731235</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5222246650278449</v>
+        <v>-0.5178649614283916</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.29385618261168</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1545524346790345</v>
+        <v>-0.1553627613694889</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.102536917184693</v>
+        <v>-2.101747031167512</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4555179878504083</v>
+        <v>-0.449413526782319</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2608884259507078</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1409291778628861</v>
+        <v>0.1442551674139761</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.050089069663071</v>
+        <v>-2.037864817021938</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3414473506038934</v>
+        <v>-0.3353312091510769</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2246685910048612</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4803596979892495</v>
+        <v>0.4878117834452475</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.994277271339995</v>
+        <v>-1.980277600220317</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2597357591961881</v>
+        <v>-0.2544664456360986</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.18645903477948</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7826451346348047</v>
+        <v>0.7919879823685295</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.920652156283787</v>
+        <v>-1.908473165133473</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1898607776614796</v>
+        <v>-0.180627433534573</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1477923108997146</v>
       </c>
       <c r="E86" t="n">
-        <v>1.10284536135581</v>
+        <v>1.108133655541081</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.878007071644526</v>
+        <v>-1.85943964007244</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.112854921250773</v>
+        <v>-0.1059401334922294</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1101690948261232</v>
       </c>
       <c r="E87" t="n">
-        <v>1.357752237451378</v>
+        <v>1.353959032511197</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.714218146782343</v>
+        <v>-1.686363349303987</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06432876290133149</v>
+        <v>-0.05931641780524193</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07528504881738951</v>
       </c>
       <c r="E88" t="n">
-        <v>1.57739749210341</v>
+        <v>1.577603358884228</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.537168335134481</v>
+        <v>-1.505810882286035</v>
       </c>
       <c r="G88" t="n">
-        <v>0.006223680947558653</v>
+        <v>0.01025779382273939</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04526529209769653</v>
       </c>
       <c r="E89" t="n">
-        <v>1.757655029406997</v>
+        <v>1.763971197448269</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.32162143547363</v>
+        <v>-1.275164165269006</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06320205769527062</v>
+        <v>0.06571334041163358</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.02154520329033683</v>
       </c>
       <c r="E90" t="n">
-        <v>1.936106487222131</v>
+        <v>1.945636221111492</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.095251199314873</v>
+        <v>-1.046688539763159</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0938470070753533</v>
+        <v>0.0983264346182612</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.006131165812572574</v>
       </c>
       <c r="E91" t="n">
-        <v>2.1214581323149</v>
+        <v>2.129113164455534</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8736626206538415</v>
+        <v>-0.8226237195399461</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08033572204208421</v>
+        <v>0.08136943609044757</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0002217530114267658</v>
       </c>
       <c r="E92" t="n">
-        <v>2.241570448561595</v>
+        <v>2.246790120486593</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6718153522299866</v>
+        <v>-0.6226015112297271</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0948529802099894</v>
+        <v>0.09328050841608072</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.004353781985763107</v>
       </c>
       <c r="E93" t="n">
-        <v>2.347088124091567</v>
+        <v>2.350656481625747</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4218127776717809</v>
+        <v>-0.3739670017327029</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04883810457691085</v>
+        <v>0.04440539857291204</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01818272194340504</v>
       </c>
       <c r="E94" t="n">
-        <v>2.367375492314743</v>
+        <v>2.371032912782469</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2813911924805459</v>
+        <v>-0.2320357268154683</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01139225118937545</v>
+        <v>0.009130636696557871</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04072996148949257</v>
       </c>
       <c r="E95" t="n">
-        <v>2.330091704265298</v>
+        <v>2.326718993175299</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1095873336233193</v>
+        <v>-0.06684442576196718</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02854298419315928</v>
+        <v>-0.02773703764697768</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06977321444982609</v>
       </c>
       <c r="E96" t="n">
-        <v>2.232734237515416</v>
+        <v>2.228358473386962</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01196897018528438</v>
+        <v>0.05289995836581884</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06661519821169451</v>
+        <v>-0.06912064073569385</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1029383247379753</v>
       </c>
       <c r="E97" t="n">
-        <v>2.078141425553821</v>
+        <v>2.079689076530184</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09226431494480827</v>
+        <v>0.1256877358418902</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1161283490705903</v>
+        <v>-0.124433102611679</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1381046381744759</v>
       </c>
       <c r="E98" t="n">
-        <v>1.883810484701964</v>
+        <v>1.886426890880872</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1608018924282444</v>
+        <v>0.1925097568185086</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1381517144738571</v>
+        <v>-0.1397782080471294</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1727600137436587</v>
       </c>
       <c r="E99" t="n">
-        <v>1.679338049810655</v>
+        <v>1.689114531827379</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1787940650525123</v>
+        <v>0.2033418536049603</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1365485816700394</v>
+        <v>-0.1342314853497673</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2051813800946327</v>
       </c>
       <c r="E100" t="n">
-        <v>1.509073081641246</v>
+        <v>1.52971086140624</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2090287409190497</v>
+        <v>0.2276925356651356</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1308105926727682</v>
+        <v>-0.1296410941519503</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.232260187089163</v>
       </c>
       <c r="E101" t="n">
-        <v>1.356000179742287</v>
+        <v>1.386440722389643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.208622847549777</v>
+        <v>0.2198593776574104</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1126388341333185</v>
+        <v>-0.11052030435341</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2522202934791551</v>
       </c>
       <c r="E102" t="n">
-        <v>1.157737329381613</v>
+        <v>1.203490856406419</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2203791547777739</v>
+        <v>0.2346905461648609</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1436210546224011</v>
+        <v>-0.1424033745145833</v>
       </c>
     </row>
   </sheetData>
